--- a/materials/Example CTT.xlsx
+++ b/materials/Example CTT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oecd-my.sharepoint.com/personal/nate_reinertsen_oecd_org/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\Homedir4\Reinertsen_N\Ed Measurement - Portugal\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="8_{515BCA8E-35B1-4B8F-A71B-5D9D8380EA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425261B6-CB26-4D01-96FE-F9BE89B34CCA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAF8309-721C-4ABF-87D5-D0A88592B0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{AAEC2B75-EC23-4EB8-973C-6EFE1AE344EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{AAEC2B75-EC23-4EB8-973C-6EFE1AE344EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Scored" sheetId="3" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,6 +317,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -637,13 +640,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C498DC-FF4D-4905-B286-5F75D30B6AA7}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7265625" style="1"/>
     <col min="23" max="42" width="2.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -708,7 +712,7 @@
       <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -776,7 +780,7 @@
       <c r="U2" s="3">
         <v>1</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <f>SUM(B2:U2)</f>
         <v>16</v>
       </c>
@@ -845,7 +849,7 @@
       <c r="U3" s="3">
         <v>0</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <f t="shared" ref="V3:V28" si="0">SUM(B3:U3)</f>
         <v>11</v>
       </c>
@@ -914,7 +918,7 @@
       <c r="U4" s="3">
         <v>1</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -983,7 +987,7 @@
       <c r="U5" s="3">
         <v>0</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1052,7 +1056,7 @@
       <c r="U6" s="3">
         <v>1</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1121,7 +1125,7 @@
       <c r="U7" s="3">
         <v>0</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1190,7 +1194,7 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1259,7 +1263,7 @@
       <c r="U9" s="3">
         <v>1</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1328,7 +1332,7 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1397,7 +1401,7 @@
       <c r="U11" s="3">
         <v>0</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1466,7 +1470,7 @@
       <c r="U12" s="3">
         <v>0</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1535,7 +1539,7 @@
       <c r="U13" s="3">
         <v>1</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1604,7 +1608,7 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1673,7 +1677,7 @@
       <c r="U15" s="3">
         <v>1</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1742,7 +1746,7 @@
       <c r="U16" s="3">
         <v>0</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1811,7 +1815,7 @@
       <c r="U17" s="3">
         <v>1</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1880,7 +1884,7 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1949,7 +1953,7 @@
       <c r="U19" s="3">
         <v>1</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2018,7 +2022,7 @@
       <c r="U20" s="3">
         <v>1</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2087,7 +2091,7 @@
       <c r="U21" s="3">
         <v>1</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2156,7 +2160,7 @@
       <c r="U22" s="3">
         <v>1</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2225,7 +2229,7 @@
       <c r="U23" s="3">
         <v>1</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2294,7 +2298,7 @@
       <c r="U24" s="3">
         <v>1</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2363,7 +2367,7 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2432,7 +2436,7 @@
       <c r="U26" s="3">
         <v>1</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -2501,7 +2505,7 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2570,7 +2574,7 @@
       <c r="U28" s="3">
         <v>1</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2675,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BBEFD4-A946-42FE-98F4-1025D38A834A}">
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2752,28 +2756,28 @@
       <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
     </row>
     <row r="2" spans="1:42" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -7333,8 +7337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A89BDBB-ABB2-40F5-BEA4-5F6C2C5CC53E}">
   <dimension ref="A1:AL41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7401,25 +7405,25 @@
       <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
     </row>
     <row r="2" spans="1:35" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -7474,71 +7478,71 @@
         <v>1</v>
       </c>
       <c r="R2" s="1">
-        <f t="shared" ref="R2:R28" si="0">SUM(B2:Q2)</f>
+        <f>SUM(B2:Q2)</f>
         <v>16</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S16" si="1">$R2-B2</f>
+        <f t="shared" ref="S2:S16" si="0">$R2-B2</f>
         <v>15</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T16" si="2">$R2-C2</f>
+        <f t="shared" ref="T2:T16" si="1">$R2-C2</f>
         <v>15</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U16" si="3">$R2-D2</f>
+        <f t="shared" ref="U2:U16" si="2">$R2-D2</f>
         <v>15</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V16" si="4">$R2-E2</f>
+        <f t="shared" ref="V2:V16" si="3">$R2-E2</f>
         <v>15</v>
       </c>
       <c r="W2">
-        <f t="shared" ref="W2:W16" si="5">$R2-F2</f>
+        <f t="shared" ref="W2:W16" si="4">$R2-F2</f>
         <v>15</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X16" si="6">$R2-G2</f>
+        <f t="shared" ref="X2:X16" si="5">$R2-G2</f>
         <v>15</v>
       </c>
       <c r="Y2">
-        <f t="shared" ref="Y2:Y16" si="7">$R2-H2</f>
+        <f t="shared" ref="Y2:Y16" si="6">$R2-H2</f>
         <v>15</v>
       </c>
       <c r="Z2">
-        <f t="shared" ref="Z2:Z16" si="8">$R2-I2</f>
+        <f t="shared" ref="Z2:Z16" si="7">$R2-I2</f>
         <v>15</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AA16" si="9">$R2-J2</f>
+        <f t="shared" ref="AA2:AA16" si="8">$R2-J2</f>
         <v>15</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB16" si="10">$R2-K2</f>
+        <f t="shared" ref="AB2:AB16" si="9">$R2-K2</f>
         <v>15</v>
       </c>
       <c r="AC2">
-        <f t="shared" ref="AC2:AC16" si="11">$R2-L2</f>
+        <f t="shared" ref="AC2:AC16" si="10">$R2-L2</f>
         <v>15</v>
       </c>
       <c r="AD2">
-        <f t="shared" ref="AD2:AD16" si="12">$R2-M2</f>
+        <f t="shared" ref="AD2:AD16" si="11">$R2-M2</f>
         <v>15</v>
       </c>
       <c r="AE2">
-        <f t="shared" ref="AE2:AE16" si="13">$R2-N2</f>
+        <f t="shared" ref="AE2:AE16" si="12">$R2-N2</f>
         <v>15</v>
       </c>
       <c r="AF2">
-        <f t="shared" ref="AF2:AF16" si="14">$R2-O2</f>
+        <f t="shared" ref="AF2:AF16" si="13">$R2-O2</f>
         <v>15</v>
       </c>
       <c r="AG2">
-        <f t="shared" ref="AG2:AG16" si="15">$R2-P2</f>
+        <f t="shared" ref="AG2:AG16" si="14">$R2-P2</f>
         <v>15</v>
       </c>
       <c r="AH2">
-        <f t="shared" ref="AH2:AH16" si="16">$R2-Q2</f>
+        <f t="shared" ref="AH2:AH16" si="15">$R2-Q2</f>
         <v>15</v>
       </c>
     </row>
@@ -7595,71 +7599,71 @@
         <v>1</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="R2:R28" si="16">SUM(B3:Q3)</f>
         <v>15</v>
       </c>
       <c r="S3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="T3">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="AD3">
+        <v>15</v>
+      </c>
+      <c r="AE3">
         <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="AE3">
+        <v>14</v>
+      </c>
+      <c r="AF3">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <f t="shared" si="15"/>
-        <v>14</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" si="16"/>
         <v>14</v>
       </c>
     </row>
@@ -7716,71 +7720,71 @@
         <v>1</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="S4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" si="16"/>
         <v>15</v>
       </c>
     </row>
@@ -7837,71 +7841,71 @@
         <v>1</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="S5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="Z5">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="AA5">
+      <c r="AB5">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="AF5">
-        <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="15"/>
-        <v>13</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="16"/>
         <v>13</v>
       </c>
     </row>
@@ -7958,71 +7962,71 @@
         <v>1</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="S6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="AE6">
+        <v>15</v>
+      </c>
+      <c r="AF6">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="AF6">
+        <v>14</v>
+      </c>
+      <c r="AG6">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f t="shared" si="15"/>
-        <v>14</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" si="16"/>
         <v>14</v>
       </c>
     </row>
@@ -8079,71 +8083,71 @@
         <v>1</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="S7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="AA7">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="AB7">
+      <c r="AC7">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="AE7">
+        <v>13</v>
+      </c>
+      <c r="AF7">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <f t="shared" si="14"/>
-        <v>13</v>
-      </c>
-      <c r="AG7">
+        <v>12</v>
+      </c>
+      <c r="AH7">
         <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
@@ -8200,71 +8204,71 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="S8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="V8">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="W8">
+      <c r="X8">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <f t="shared" si="15"/>
-        <v>13</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="16"/>
         <v>14</v>
       </c>
     </row>
@@ -8321,71 +8325,71 @@
         <v>1</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="S9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="16"/>
         <v>15</v>
       </c>
     </row>
@@ -8442,71 +8446,71 @@
         <v>1</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="S10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="V10">
+        <v>15</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="W10">
+        <v>14</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <f t="shared" si="14"/>
         <v>14</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f t="shared" si="15"/>
-        <v>14</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="16"/>
         <v>14</v>
       </c>
     </row>
@@ -8563,71 +8567,71 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="S11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="AA11">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="AB11">
+      <c r="AC11">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <f t="shared" si="15"/>
-        <v>13</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="16"/>
         <v>14</v>
       </c>
     </row>
@@ -8684,71 +8688,71 @@
         <v>1</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="S12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="Y12">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="Z12">
+      <c r="AA12">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="AB12">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="AC12">
+      <c r="AD12">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="AE12">
-        <f t="shared" si="13"/>
+      <c r="AG12">
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="AF12">
-        <f t="shared" si="14"/>
-        <v>11</v>
-      </c>
-      <c r="AG12">
+      <c r="AH12">
         <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="16"/>
         <v>11</v>
       </c>
     </row>
@@ -8805,71 +8809,71 @@
         <v>1</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="S13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="X13">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="Y13">
+      <c r="Z13">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="AD13">
+        <v>13</v>
+      </c>
+      <c r="AE13">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="AF13">
+        <v>12</v>
+      </c>
+      <c r="AG13">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
@@ -8926,71 +8930,71 @@
         <v>1</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="S14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="AD14">
-        <f t="shared" si="12"/>
+      <c r="AF14">
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="AE14">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="AF14">
+      <c r="AG14">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <f t="shared" si="15"/>
-        <v>13</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
@@ -9047,71 +9051,71 @@
         <v>1</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="S15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="V15">
+      <c r="W15">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="Z15">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="AA15">
+      <c r="AB15">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="AF15">
+        <v>12</v>
+      </c>
+      <c r="AG15">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="16"/>
         <v>11</v>
       </c>
     </row>
@@ -9168,71 +9172,71 @@
         <v>1</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="S16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="T16">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="U16">
+      <c r="V16">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="W16">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="X16">
+      <c r="Y16">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="AD16">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="AE16">
+      <c r="AF16">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
@@ -9289,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="S17">
@@ -9410,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="S18">
@@ -9531,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="S19">
@@ -9652,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="S20">
@@ -9773,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="S21">
@@ -9894,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="S22">
@@ -10015,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="S23">
@@ -10136,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="S24">
@@ -10257,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="S25">
@@ -10378,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="S26">
@@ -10499,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="S27">
@@ -10620,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S28">
@@ -11164,8 +11168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE1B28-F411-49DB-895E-B5B43ACDF45C}">
   <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11230,28 +11234,28 @@
       <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
     </row>
     <row r="2" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -11306,71 +11310,72 @@
         <v>1</v>
       </c>
       <c r="R2" s="1">
-        <v>19</v>
+        <f>SUM(B2:Q2)</f>
+        <v>16</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S28" si="0">$R2-B2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T2">
         <f t="shared" ref="T2:T28" si="1">$R2-C2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U28" si="2">$R2-D2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V28" si="3">$R2-E2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W2">
         <f t="shared" ref="W2:W28" si="4">$R2-F2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X28" si="5">$R2-G2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y2">
         <f t="shared" ref="Y2:Y28" si="6">$R2-H2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z2">
         <f t="shared" ref="Z2:Z28" si="7">$R2-I2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA2">
         <f t="shared" ref="AA2:AA28" si="8">$R2-J2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB28" si="9">$R2-K2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC2">
         <f t="shared" ref="AC2:AC28" si="10">$R2-L2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD28" si="11">$R2-M2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE2">
         <f t="shared" ref="AE2:AE28" si="12">$R2-N2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF28" si="13">$R2-O2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG2">
         <f t="shared" ref="AG2:AG28" si="14">$R2-P2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH28" si="15">$R2-Q2</f>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -11426,71 +11431,72 @@
         <v>1</v>
       </c>
       <c r="R3" s="1">
-        <v>18</v>
+        <f t="shared" ref="R3:R28" si="16">SUM(B3:Q3)</f>
+        <v>15</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T3">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U3">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V3">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="W3">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X3">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y3">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z3">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA3">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB3">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC3">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AD3">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE3">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF3">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG3">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH3">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -11546,71 +11552,72 @@
         <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>18</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T4">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W4">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X4">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y4">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z4">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA4">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB4">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC4">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD4">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE4">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG4">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH4">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -11666,71 +11673,72 @@
         <v>1</v>
       </c>
       <c r="R5" s="1">
-        <v>18</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="T5">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U5">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="V5">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="W5">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y5">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z5">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA5">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB5">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC5">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD5">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE5">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF5">
         <f t="shared" si="13"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG5">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH5">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -11786,71 +11794,72 @@
         <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>18</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U6">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V6">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="W6">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X6">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y6">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z6">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA6">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB6">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC6">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AD6">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE6">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF6">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG6">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH6">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -11906,71 +11915,72 @@
         <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>13</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T7">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="V7">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X7">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y7">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z7">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA7">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB7">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AC7">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AD7">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE7">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF7">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG7">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AH7">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -12026,71 +12036,72 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T8">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U8">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V8">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="W8">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="X8">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y8">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z8">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA8">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB8">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AC8">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AD8">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE8">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AF8">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG8">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH8">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -12146,71 +12157,72 @@
         <v>1</v>
       </c>
       <c r="R9" s="1">
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U9">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V9">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W9">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X9">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y9">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z9">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA9">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB9">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC9">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD9">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE9">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF9">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG9">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH9">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -12266,71 +12278,72 @@
         <v>1</v>
       </c>
       <c r="R10" s="1">
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
       <c r="S10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T10">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V10">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W10">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X10">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y10">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z10">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA10">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB10">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC10">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD10">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE10">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF10">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG10">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH10">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -12386,71 +12399,72 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="S11">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T11">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V11">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="W11">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="X11">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y11">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z11">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA11">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB11">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AC11">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AD11">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE11">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AF11">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG11">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH11">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -12506,71 +12520,72 @@
         <v>1</v>
       </c>
       <c r="R12" s="1">
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T12">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U12">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V12">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W12">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X12">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y12">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z12">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA12">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB12">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AC12">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD12">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE12">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF12">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG12">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AH12">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -12626,71 +12641,72 @@
         <v>1</v>
       </c>
       <c r="R13" s="1">
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>13</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T13">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U13">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V13">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W13">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X13">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y13">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z13">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA13">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB13">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC13">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD13">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE13">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AF13">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG13">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH13">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -12746,71 +12762,72 @@
         <v>1</v>
       </c>
       <c r="R14" s="1">
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>13</v>
       </c>
       <c r="S14">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T14">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V14">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="W14">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X14">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y14">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z14">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA14">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB14">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC14">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD14">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE14">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF14">
         <f t="shared" si="13"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG14">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH14">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -12866,71 +12883,72 @@
         <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U15">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V15">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="W15">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X15">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y15">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z15">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA15">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB15">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC15">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AD15">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE15">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF15">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG15">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH15">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="13" x14ac:dyDescent="0.3">
@@ -12986,71 +13004,72 @@
         <v>1</v>
       </c>
       <c r="R16" s="1">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>13</v>
       </c>
       <c r="S16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T16">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U16">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V16">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W16">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X16">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y16">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z16">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA16">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB16">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC16">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD16">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE16">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF16">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG16">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH16">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="13" x14ac:dyDescent="0.3">
@@ -13106,71 +13125,72 @@
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="S17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T17">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="V17">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="W17">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X17">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y17">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z17">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AA17">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB17">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC17">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD17">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE17">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF17">
         <f t="shared" si="13"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG17">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH17">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="13" x14ac:dyDescent="0.3">
@@ -13226,71 +13246,72 @@
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>14</v>
+        <f t="shared" si="16"/>
+        <v>11</v>
       </c>
       <c r="S18">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T18">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V18">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W18">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X18">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y18">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z18">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA18">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB18">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AC18">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD18">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE18">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF18">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG18">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH18">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="13" x14ac:dyDescent="0.3">
@@ -13346,71 +13367,72 @@
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="S19">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T19">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U19">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V19">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W19">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X19">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y19">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z19">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA19">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB19">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC19">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD19">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE19">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF19">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG19">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH19">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="13" x14ac:dyDescent="0.3">
@@ -13466,71 +13488,72 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
       <c r="S20">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T20">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U20">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V20">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W20">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X20">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y20">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z20">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA20">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB20">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AC20">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD20">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE20">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AF20">
         <f t="shared" si="13"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AG20">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AH20">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="13" x14ac:dyDescent="0.3">
@@ -13586,71 +13609,72 @@
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="S21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T21">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U21">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V21">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W21">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X21">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y21">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z21">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA21">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB21">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC21">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD21">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE21">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF21">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG21">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH21">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="13" x14ac:dyDescent="0.3">
@@ -13706,71 +13730,72 @@
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="S22">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T22">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U22">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V22">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W22">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y22">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z22">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA22">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB22">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC22">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD22">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE22">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF22">
         <f t="shared" si="13"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG22">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH22">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="13" x14ac:dyDescent="0.3">
@@ -13826,71 +13851,72 @@
         <v>1</v>
       </c>
       <c r="R23" s="1">
-        <v>7</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="S23">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T23">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U23">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V23">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W23">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X23">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y23">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z23">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA23">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB23">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC23">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD23">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE23">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF23">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG23">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH23">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="13" x14ac:dyDescent="0.3">
@@ -13946,71 +13972,72 @@
         <v>0</v>
       </c>
       <c r="R24" s="1">
-        <v>7</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="S24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T24">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U24">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V24">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W24">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X24">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y24">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z24">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA24">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB24">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC24">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD24">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE24">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF24">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG24">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH24">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="13" x14ac:dyDescent="0.3">
@@ -14066,71 +14093,72 @@
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <v>6</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="S25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U25">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W25">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X25">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y25">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z25">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA25">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB25">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC25">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD25">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE25">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF25">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG25">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH25">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="13" x14ac:dyDescent="0.3">
@@ -14186,71 +14214,72 @@
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="S26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U26">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W26">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X26">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y26">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z26">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA26">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB26">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC26">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD26">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE26">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF26">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG26">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH26">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="13" x14ac:dyDescent="0.3">
@@ -14306,6 +14335,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="1">
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="S27">
@@ -14426,71 +14456,72 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="S28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U28">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y28">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z28">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC28">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD28">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE28">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF28">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG28">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH28">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="13" x14ac:dyDescent="0.3">
@@ -14502,63 +14533,63 @@
         <v>0.81481481481481477</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29:Q29" si="16">AVERAGE(C2:C28)</f>
+        <f t="shared" ref="C29:Q29" si="17">AVERAGE(C2:C28)</f>
         <v>0.77777777777777779</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.7407407407407407</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.70370370370370372</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.70370370370370372</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.70370370370370372</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.62962962962962965</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.59259259259259256</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.51851851851851849</v>
       </c>
       <c r="Q29" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.51851851851851849</v>
       </c>
       <c r="R29" s="1"/>
@@ -14570,67 +14601,67 @@
       </c>
       <c r="B30" s="7">
         <f>CORREL(B2:B28,S2:S28)</f>
-        <v>0.58051945034762575</v>
+        <v>0.58787836854659226</v>
       </c>
       <c r="C30" s="7">
         <f>CORREL(C2:C28,T2:T28)</f>
-        <v>0.341110613085786</v>
+        <v>0.33742547779434356</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" ref="D30" si="17">CORREL(D2:D28,U2:U28)</f>
-        <v>0.30315650547181383</v>
+        <f t="shared" ref="D30" si="18">CORREL(D2:D28,U2:U28)</f>
+        <v>0.29551912897770866</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" ref="E30:Q30" si="18">CORREL(E2:E28,V2:V28)</f>
-        <v>0.41776217545847555</v>
+        <f t="shared" ref="E30:Q30" si="19">CORREL(E2:E28,V2:V28)</f>
+        <v>0.37966313697954041</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="18"/>
-        <v>0.74922736431019121</v>
+        <f t="shared" si="19"/>
+        <v>0.74034798659347212</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="18"/>
-        <v>0.42313647666389925</v>
+        <f t="shared" si="19"/>
+        <v>0.47215590484301168</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="18"/>
-        <v>0.73321736093089218</v>
+        <f t="shared" si="19"/>
+        <v>0.73717854241006664</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="18"/>
-        <v>0.51246722125347588</v>
+        <f t="shared" si="19"/>
+        <v>0.57236284249460812</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="18"/>
-        <v>0.52833249196979482</v>
+        <f t="shared" si="19"/>
+        <v>0.54156153447403854</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="18"/>
-        <v>0.67082986764588182</v>
+        <f t="shared" si="19"/>
+        <v>0.6806122248562908</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" si="18"/>
-        <v>0.81432969763380514</v>
+        <f t="shared" si="19"/>
+        <v>0.81289524836166627</v>
       </c>
       <c r="M30" s="7">
-        <f t="shared" si="18"/>
-        <v>0.47101518185734981</v>
+        <f t="shared" si="19"/>
+        <v>0.42484876773939706</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="18"/>
-        <v>0.44989511457795156</v>
+        <f t="shared" si="19"/>
+        <v>0.48531339622300984</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" si="18"/>
-        <v>0.48300650749071805</v>
+        <f t="shared" si="19"/>
+        <v>0.50381096466696917</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="18"/>
-        <v>0.5993142013233852</v>
+        <f t="shared" si="19"/>
+        <v>0.62503314824971612</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="18"/>
-        <v>0.56556523431944961</v>
+        <f t="shared" si="19"/>
+        <v>0.53121992021065756</v>
       </c>
       <c r="R30" s="1"/>
       <c r="S30"/>
@@ -14644,63 +14675,63 @@
         <v>0.3958473906635695</v>
       </c>
       <c r="C31" s="7">
-        <f t="shared" ref="C31:Q31" si="19">_xlfn.STDEV.S(C2:C28)</f>
+        <f t="shared" ref="C31:Q31" si="20">_xlfn.STDEV.S(C2:C28)</f>
         <v>0.42365927286816174</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.42365927286816174</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.42365927286816174</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.44657608470472243</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.46532162696807522</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.46532162696807522</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.46532162696807522</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.48038446141526142</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.48038446141526142</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.49210287762341132</v>
       </c>
       <c r="M31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.50071174413254049</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.50636968354183332</v>
       </c>
       <c r="O31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.50636968354183332</v>
       </c>
       <c r="P31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.50917507721731559</v>
       </c>
       <c r="Q31" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.50917507721731559</v>
       </c>
       <c r="R31" s="1"/>
@@ -14725,7 +14756,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="10">
         <f>_xlfn.STDEV.S(R2:R28)</f>
-        <v>5.0690390307391295</v>
+        <v>4.614482342955414</v>
       </c>
       <c r="S32"/>
       <c r="AM32" s="11" t="s">
@@ -14790,7 +14821,7 @@
       </c>
       <c r="B35" s="9">
         <f>R32^2</f>
-        <v>25.695156695156694</v>
+        <v>21.293447293447286</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -14816,7 +14847,7 @@
       </c>
       <c r="B36" s="14">
         <f>B33*(1-(B34/B35))</f>
-        <v>0.92013157408434043</v>
+        <v>0.88984033538488971</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>53</v>
